--- a/صيدليات دكتور مصطفي طلعت_2026-01-14_20-46.xlsx
+++ b/صيدليات دكتور مصطفي طلعت_2026-01-14_20-46.xlsx
@@ -56,6 +56,12 @@
     <t>AQUA PLUS SYRUP 100 ML</t>
   </si>
   <si>
+    <t>ATROVENT 250MCG/2ML 20 UNIT DOSE VIAL</t>
+  </si>
+  <si>
+    <t>1:13</t>
+  </si>
+  <si>
     <t>BETADERM 0.1% CREAM 15 GM</t>
   </si>
   <si>
@@ -300,6 +306,9 @@
   </si>
   <si>
     <t>PSYCHOLANZ 6/25 MG 30 CAPSULES</t>
+  </si>
+  <si>
+    <t>PULMICORT 0.5MG/ML 20 NEBULIZER VIAL SUSP.</t>
   </si>
   <si>
     <t>QUADRIDERM CREAM 30 GM</t>
@@ -1131,11 +1140,11 @@
       <c r="J8" s="8"/>
       <c r="K8" s="8"/>
       <c r="L8" s="9">
-        <v>18</v>
+        <v>14.300000000000001</v>
       </c>
       <c r="M8" s="9"/>
       <c t="s" r="N8" s="7">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9" ht="24.75" customHeight="1">
@@ -1157,11 +1166,11 @@
       <c r="J9" s="8"/>
       <c r="K9" s="8"/>
       <c r="L9" s="9">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="M9" s="9"/>
       <c t="s" r="N9" s="7">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="10" ht="25.5" customHeight="1">
@@ -1177,13 +1186,13 @@
       <c r="F10" s="7"/>
       <c r="G10" s="7"/>
       <c t="s" r="H10" s="8">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="I10" s="8"/>
       <c r="J10" s="8"/>
       <c r="K10" s="8"/>
       <c r="L10" s="9">
-        <v>64</v>
+        <v>0</v>
       </c>
       <c r="M10" s="9"/>
       <c t="s" r="N10" s="7">
@@ -1195,7 +1204,7 @@
         <v>8</v>
       </c>
       <c t="s" r="B11" s="7">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C11" s="7"/>
       <c r="D11" s="7"/>
@@ -1209,11 +1218,11 @@
       <c r="J11" s="8"/>
       <c r="K11" s="8"/>
       <c r="L11" s="9">
-        <v>78</v>
+        <v>64</v>
       </c>
       <c r="M11" s="9"/>
       <c t="s" r="N11" s="7">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -1221,7 +1230,7 @@
         <v>9</v>
       </c>
       <c t="s" r="B12" s="7">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C12" s="7"/>
       <c r="D12" s="7"/>
@@ -1229,17 +1238,17 @@
       <c r="F12" s="7"/>
       <c r="G12" s="7"/>
       <c t="s" r="H12" s="8">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="I12" s="8"/>
       <c r="J12" s="8"/>
       <c r="K12" s="8"/>
       <c r="L12" s="9">
-        <v>19.899999999999999</v>
+        <v>78</v>
       </c>
       <c r="M12" s="9"/>
       <c t="s" r="N12" s="7">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="13" ht="25.5" customHeight="1">
@@ -1255,17 +1264,17 @@
       <c r="F13" s="7"/>
       <c r="G13" s="7"/>
       <c t="s" r="H13" s="8">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="I13" s="8"/>
       <c r="J13" s="8"/>
       <c r="K13" s="8"/>
       <c r="L13" s="9">
-        <v>72</v>
+        <v>19.899999999999999</v>
       </c>
       <c r="M13" s="9"/>
       <c t="s" r="N13" s="7">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="14" ht="24.75" customHeight="1">
@@ -1273,7 +1282,7 @@
         <v>11</v>
       </c>
       <c t="s" r="B14" s="7">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C14" s="7"/>
       <c r="D14" s="7"/>
@@ -1287,7 +1296,7 @@
       <c r="J14" s="8"/>
       <c r="K14" s="8"/>
       <c r="L14" s="9">
-        <v>45</v>
+        <v>72</v>
       </c>
       <c r="M14" s="9"/>
       <c t="s" r="N14" s="7">
@@ -1299,7 +1308,7 @@
         <v>12</v>
       </c>
       <c t="s" r="B15" s="7">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C15" s="7"/>
       <c r="D15" s="7"/>
@@ -1307,17 +1316,17 @@
       <c r="F15" s="7"/>
       <c r="G15" s="7"/>
       <c t="s" r="H15" s="8">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="I15" s="8"/>
       <c r="J15" s="8"/>
       <c r="K15" s="8"/>
       <c r="L15" s="9">
-        <v>62</v>
+        <v>45</v>
       </c>
       <c r="M15" s="9"/>
       <c t="s" r="N15" s="7">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="16" ht="24.75" customHeight="1">
@@ -1333,17 +1342,17 @@
       <c r="F16" s="7"/>
       <c r="G16" s="7"/>
       <c t="s" r="H16" s="8">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="I16" s="8"/>
       <c r="J16" s="8"/>
       <c r="K16" s="8"/>
       <c r="L16" s="9">
-        <v>0</v>
+        <v>62</v>
       </c>
       <c r="M16" s="9"/>
       <c t="s" r="N16" s="7">
-        <v>28</v>
+        <v>8</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1359,17 +1368,17 @@
       <c r="F17" s="7"/>
       <c r="G17" s="7"/>
       <c t="s" r="H17" s="8">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="I17" s="8"/>
       <c r="J17" s="8"/>
       <c r="K17" s="8"/>
       <c r="L17" s="9">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="M17" s="9"/>
       <c t="s" r="N17" s="7">
-        <v>8</v>
+        <v>30</v>
       </c>
     </row>
     <row r="18" ht="25.5" customHeight="1">
@@ -1377,7 +1386,7 @@
         <v>15</v>
       </c>
       <c t="s" r="B18" s="7">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C18" s="7"/>
       <c r="D18" s="7"/>
@@ -1385,17 +1394,17 @@
       <c r="F18" s="7"/>
       <c r="G18" s="7"/>
       <c t="s" r="H18" s="8">
-        <v>31</v>
+        <v>8</v>
       </c>
       <c r="I18" s="8"/>
       <c r="J18" s="8"/>
       <c r="K18" s="8"/>
       <c r="L18" s="9">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="M18" s="9"/>
       <c t="s" r="N18" s="7">
-        <v>28</v>
+        <v>8</v>
       </c>
     </row>
     <row r="19" ht="24.75" customHeight="1">
@@ -1411,17 +1420,17 @@
       <c r="F19" s="7"/>
       <c r="G19" s="7"/>
       <c t="s" r="H19" s="8">
-        <v>11</v>
+        <v>33</v>
       </c>
       <c r="I19" s="8"/>
       <c r="J19" s="8"/>
       <c r="K19" s="8"/>
       <c r="L19" s="9">
-        <v>36</v>
+        <v>20</v>
       </c>
       <c r="M19" s="9"/>
       <c t="s" r="N19" s="7">
-        <v>12</v>
+        <v>30</v>
       </c>
     </row>
     <row r="20" ht="25.5" customHeight="1">
@@ -1429,7 +1438,7 @@
         <v>17</v>
       </c>
       <c t="s" r="B20" s="7">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C20" s="7"/>
       <c r="D20" s="7"/>
@@ -1437,17 +1446,17 @@
       <c r="F20" s="7"/>
       <c r="G20" s="7"/>
       <c t="s" r="H20" s="8">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="I20" s="8"/>
       <c r="J20" s="8"/>
       <c r="K20" s="8"/>
       <c r="L20" s="9">
-        <v>120</v>
+        <v>36</v>
       </c>
       <c r="M20" s="9"/>
       <c t="s" r="N20" s="7">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="21" ht="24.75" customHeight="1">
@@ -1455,7 +1464,7 @@
         <v>18</v>
       </c>
       <c t="s" r="B21" s="7">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C21" s="7"/>
       <c r="D21" s="7"/>
@@ -1463,13 +1472,13 @@
       <c r="F21" s="7"/>
       <c r="G21" s="7"/>
       <c t="s" r="H21" s="8">
-        <v>35</v>
+        <v>9</v>
       </c>
       <c r="I21" s="8"/>
       <c r="J21" s="8"/>
       <c r="K21" s="8"/>
       <c r="L21" s="9">
-        <v>-200</v>
+        <v>120</v>
       </c>
       <c r="M21" s="9"/>
       <c t="s" r="N21" s="7">
@@ -1489,17 +1498,17 @@
       <c r="F22" s="7"/>
       <c r="G22" s="7"/>
       <c t="s" r="H22" s="8">
-        <v>18</v>
+        <v>37</v>
       </c>
       <c r="I22" s="8"/>
       <c r="J22" s="8"/>
       <c r="K22" s="8"/>
       <c r="L22" s="9">
-        <v>47.5</v>
+        <v>-200</v>
       </c>
       <c r="M22" s="9"/>
       <c t="s" r="N22" s="7">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="23" ht="25.5" customHeight="1">
@@ -1507,7 +1516,7 @@
         <v>20</v>
       </c>
       <c t="s" r="B23" s="7">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C23" s="7"/>
       <c r="D23" s="7"/>
@@ -1515,17 +1524,17 @@
       <c r="F23" s="7"/>
       <c r="G23" s="7"/>
       <c t="s" r="H23" s="8">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="I23" s="8"/>
       <c r="J23" s="8"/>
       <c r="K23" s="8"/>
       <c r="L23" s="9">
-        <v>42</v>
+        <v>47.5</v>
       </c>
       <c r="M23" s="9"/>
       <c t="s" r="N23" s="7">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="24" ht="24.75" customHeight="1">
@@ -1547,11 +1556,11 @@
       <c r="J24" s="8"/>
       <c r="K24" s="8"/>
       <c r="L24" s="9">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="M24" s="9"/>
       <c t="s" r="N24" s="7">
-        <v>41</v>
+        <v>8</v>
       </c>
     </row>
     <row r="25" ht="25.5" customHeight="1">
@@ -1559,7 +1568,7 @@
         <v>22</v>
       </c>
       <c t="s" r="B25" s="7">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C25" s="7"/>
       <c r="D25" s="7"/>
@@ -1567,17 +1576,17 @@
       <c r="F25" s="7"/>
       <c r="G25" s="7"/>
       <c t="s" r="H25" s="8">
-        <v>9</v>
+        <v>42</v>
       </c>
       <c r="I25" s="8"/>
       <c r="J25" s="8"/>
       <c r="K25" s="8"/>
       <c r="L25" s="9">
-        <v>52</v>
+        <v>32</v>
       </c>
       <c r="M25" s="9"/>
       <c t="s" r="N25" s="7">
-        <v>9</v>
+        <v>43</v>
       </c>
     </row>
     <row r="26" ht="24.75" customHeight="1">
@@ -1585,7 +1594,7 @@
         <v>23</v>
       </c>
       <c t="s" r="B26" s="7">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C26" s="7"/>
       <c r="D26" s="7"/>
@@ -1593,13 +1602,13 @@
       <c r="F26" s="7"/>
       <c r="G26" s="7"/>
       <c t="s" r="H26" s="8">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="I26" s="8"/>
       <c r="J26" s="8"/>
       <c r="K26" s="8"/>
       <c r="L26" s="9">
-        <v>220</v>
+        <v>52</v>
       </c>
       <c r="M26" s="9"/>
       <c t="s" r="N26" s="7">
@@ -1611,7 +1620,7 @@
         <v>24</v>
       </c>
       <c t="s" r="B27" s="7">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C27" s="7"/>
       <c r="D27" s="7"/>
@@ -1619,17 +1628,17 @@
       <c r="F27" s="7"/>
       <c r="G27" s="7"/>
       <c t="s" r="H27" s="8">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="I27" s="8"/>
       <c r="J27" s="8"/>
       <c r="K27" s="8"/>
       <c r="L27" s="9">
-        <v>80</v>
+        <v>220</v>
       </c>
       <c r="M27" s="9"/>
       <c t="s" r="N27" s="7">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="28" ht="25.5" customHeight="1">
@@ -1637,7 +1646,7 @@
         <v>25</v>
       </c>
       <c t="s" r="B28" s="7">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C28" s="7"/>
       <c r="D28" s="7"/>
@@ -1645,17 +1654,17 @@
       <c r="F28" s="7"/>
       <c r="G28" s="7"/>
       <c t="s" r="H28" s="8">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="I28" s="8"/>
       <c r="J28" s="8"/>
       <c r="K28" s="8"/>
       <c r="L28" s="9">
-        <v>52</v>
+        <v>80</v>
       </c>
       <c r="M28" s="9"/>
       <c t="s" r="N28" s="7">
-        <v>41</v>
+        <v>12</v>
       </c>
     </row>
     <row r="29" ht="24.75" customHeight="1">
@@ -1663,7 +1672,7 @@
         <v>26</v>
       </c>
       <c t="s" r="B29" s="7">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C29" s="7"/>
       <c r="D29" s="7"/>
@@ -1671,17 +1680,17 @@
       <c r="F29" s="7"/>
       <c r="G29" s="7"/>
       <c t="s" r="H29" s="8">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="I29" s="8"/>
       <c r="J29" s="8"/>
       <c r="K29" s="8"/>
       <c r="L29" s="9">
-        <v>150</v>
+        <v>52</v>
       </c>
       <c r="M29" s="9"/>
       <c t="s" r="N29" s="7">
-        <v>9</v>
+        <v>43</v>
       </c>
     </row>
     <row r="30" ht="25.5" customHeight="1">
@@ -1689,7 +1698,7 @@
         <v>27</v>
       </c>
       <c t="s" r="B30" s="7">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C30" s="7"/>
       <c r="D30" s="7"/>
@@ -1697,13 +1706,13 @@
       <c r="F30" s="7"/>
       <c r="G30" s="7"/>
       <c t="s" r="H30" s="8">
-        <v>48</v>
+        <v>12</v>
       </c>
       <c r="I30" s="8"/>
       <c r="J30" s="8"/>
       <c r="K30" s="8"/>
       <c r="L30" s="9">
-        <v>26</v>
+        <v>150</v>
       </c>
       <c r="M30" s="9"/>
       <c t="s" r="N30" s="7">
@@ -1723,17 +1732,17 @@
       <c r="F31" s="7"/>
       <c r="G31" s="7"/>
       <c t="s" r="H31" s="8">
-        <v>9</v>
+        <v>50</v>
       </c>
       <c r="I31" s="8"/>
       <c r="J31" s="8"/>
       <c r="K31" s="8"/>
       <c r="L31" s="9">
-        <v>55</v>
+        <v>26</v>
       </c>
       <c r="M31" s="9"/>
       <c t="s" r="N31" s="7">
-        <v>28</v>
+        <v>9</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -1741,7 +1750,7 @@
         <v>29</v>
       </c>
       <c t="s" r="B32" s="7">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C32" s="7"/>
       <c r="D32" s="7"/>
@@ -1749,17 +1758,17 @@
       <c r="F32" s="7"/>
       <c r="G32" s="7"/>
       <c t="s" r="H32" s="8">
-        <v>48</v>
+        <v>9</v>
       </c>
       <c r="I32" s="8"/>
       <c r="J32" s="8"/>
       <c r="K32" s="8"/>
       <c r="L32" s="9">
-        <v>30.079999999999998</v>
+        <v>55</v>
       </c>
       <c r="M32" s="9"/>
       <c t="s" r="N32" s="7">
-        <v>9</v>
+        <v>30</v>
       </c>
     </row>
     <row r="33" ht="25.5" customHeight="1">
@@ -1767,7 +1776,7 @@
         <v>30</v>
       </c>
       <c t="s" r="B33" s="7">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C33" s="7"/>
       <c r="D33" s="7"/>
@@ -1775,13 +1784,13 @@
       <c r="F33" s="7"/>
       <c r="G33" s="7"/>
       <c t="s" r="H33" s="8">
-        <v>12</v>
+        <v>50</v>
       </c>
       <c r="I33" s="8"/>
       <c r="J33" s="8"/>
       <c r="K33" s="8"/>
       <c r="L33" s="9">
-        <v>59.5</v>
+        <v>30.079999999999998</v>
       </c>
       <c r="M33" s="9"/>
       <c t="s" r="N33" s="7">
@@ -1793,7 +1802,7 @@
         <v>31</v>
       </c>
       <c t="s" r="B34" s="7">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C34" s="7"/>
       <c r="D34" s="7"/>
@@ -1801,13 +1810,13 @@
       <c r="F34" s="7"/>
       <c r="G34" s="7"/>
       <c t="s" r="H34" s="8">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="I34" s="8"/>
       <c r="J34" s="8"/>
       <c r="K34" s="8"/>
       <c r="L34" s="9">
-        <v>66</v>
+        <v>59.5</v>
       </c>
       <c r="M34" s="9"/>
       <c t="s" r="N34" s="7">
@@ -1819,7 +1828,7 @@
         <v>32</v>
       </c>
       <c t="s" r="B35" s="7">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C35" s="7"/>
       <c r="D35" s="7"/>
@@ -1827,17 +1836,17 @@
       <c r="F35" s="7"/>
       <c r="G35" s="7"/>
       <c t="s" r="H35" s="8">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="I35" s="8"/>
       <c r="J35" s="8"/>
       <c r="K35" s="8"/>
       <c r="L35" s="9">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="M35" s="9"/>
       <c t="s" r="N35" s="7">
-        <v>28</v>
+        <v>9</v>
       </c>
     </row>
     <row r="36" ht="24.75" customHeight="1">
@@ -1845,7 +1854,7 @@
         <v>33</v>
       </c>
       <c t="s" r="B36" s="7">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C36" s="7"/>
       <c r="D36" s="7"/>
@@ -1853,17 +1862,17 @@
       <c r="F36" s="7"/>
       <c r="G36" s="7"/>
       <c t="s" r="H36" s="8">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="I36" s="8"/>
       <c r="J36" s="8"/>
       <c r="K36" s="8"/>
       <c r="L36" s="9">
-        <v>41</v>
+        <v>60</v>
       </c>
       <c r="M36" s="9"/>
       <c t="s" r="N36" s="7">
-        <v>9</v>
+        <v>30</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -1871,7 +1880,7 @@
         <v>34</v>
       </c>
       <c t="s" r="B37" s="7">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C37" s="7"/>
       <c r="D37" s="7"/>
@@ -1879,17 +1888,17 @@
       <c r="F37" s="7"/>
       <c r="G37" s="7"/>
       <c t="s" r="H37" s="8">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="I37" s="8"/>
       <c r="J37" s="8"/>
       <c r="K37" s="8"/>
       <c r="L37" s="9">
-        <v>60</v>
+        <v>41</v>
       </c>
       <c r="M37" s="9"/>
       <c t="s" r="N37" s="7">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="38" ht="25.5" customHeight="1">
@@ -1897,7 +1906,7 @@
         <v>35</v>
       </c>
       <c t="s" r="B38" s="7">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C38" s="7"/>
       <c r="D38" s="7"/>
@@ -1905,17 +1914,17 @@
       <c r="F38" s="7"/>
       <c r="G38" s="7"/>
       <c t="s" r="H38" s="8">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="I38" s="8"/>
       <c r="J38" s="8"/>
       <c r="K38" s="8"/>
       <c r="L38" s="9">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="M38" s="9"/>
       <c t="s" r="N38" s="7">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="39" ht="24.75" customHeight="1">
@@ -1923,7 +1932,7 @@
         <v>36</v>
       </c>
       <c t="s" r="B39" s="7">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C39" s="7"/>
       <c r="D39" s="7"/>
@@ -1931,17 +1940,17 @@
       <c r="F39" s="7"/>
       <c r="G39" s="7"/>
       <c t="s" r="H39" s="8">
-        <v>58</v>
+        <v>9</v>
       </c>
       <c r="I39" s="8"/>
       <c r="J39" s="8"/>
       <c r="K39" s="8"/>
       <c r="L39" s="9">
-        <v>15</v>
+        <v>56</v>
       </c>
       <c r="M39" s="9"/>
       <c t="s" r="N39" s="7">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="40" ht="25.5" customHeight="1">
@@ -1957,17 +1966,17 @@
       <c r="F40" s="7"/>
       <c r="G40" s="7"/>
       <c t="s" r="H40" s="8">
-        <v>9</v>
+        <v>60</v>
       </c>
       <c r="I40" s="8"/>
       <c r="J40" s="8"/>
       <c r="K40" s="8"/>
       <c r="L40" s="9">
-        <v>52</v>
+        <v>15</v>
       </c>
       <c r="M40" s="9"/>
       <c t="s" r="N40" s="7">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="41" ht="24.75" customHeight="1">
@@ -1975,7 +1984,7 @@
         <v>38</v>
       </c>
       <c t="s" r="B41" s="7">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C41" s="7"/>
       <c r="D41" s="7"/>
@@ -1989,11 +1998,11 @@
       <c r="J41" s="8"/>
       <c r="K41" s="8"/>
       <c r="L41" s="9">
-        <v>114</v>
+        <v>52</v>
       </c>
       <c r="M41" s="9"/>
       <c t="s" r="N41" s="7">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2001,7 +2010,7 @@
         <v>39</v>
       </c>
       <c t="s" r="B42" s="7">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C42" s="7"/>
       <c r="D42" s="7"/>
@@ -2009,17 +2018,17 @@
       <c r="F42" s="7"/>
       <c r="G42" s="7"/>
       <c t="s" r="H42" s="8">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="I42" s="8"/>
       <c r="J42" s="8"/>
       <c r="K42" s="8"/>
       <c r="L42" s="9">
-        <v>27</v>
+        <v>114</v>
       </c>
       <c r="M42" s="9"/>
       <c t="s" r="N42" s="7">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="43" ht="25.5" customHeight="1">
@@ -2027,7 +2036,7 @@
         <v>40</v>
       </c>
       <c t="s" r="B43" s="7">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C43" s="7"/>
       <c r="D43" s="7"/>
@@ -2035,13 +2044,13 @@
       <c r="F43" s="7"/>
       <c r="G43" s="7"/>
       <c t="s" r="H43" s="8">
-        <v>63</v>
+        <v>20</v>
       </c>
       <c r="I43" s="8"/>
       <c r="J43" s="8"/>
       <c r="K43" s="8"/>
       <c r="L43" s="9">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="M43" s="9"/>
       <c t="s" r="N43" s="7">
@@ -2061,7 +2070,7 @@
       <c r="F44" s="7"/>
       <c r="G44" s="7"/>
       <c t="s" r="H44" s="8">
-        <v>22</v>
+        <v>65</v>
       </c>
       <c r="I44" s="8"/>
       <c r="J44" s="8"/>
@@ -2079,7 +2088,7 @@
         <v>42</v>
       </c>
       <c t="s" r="B45" s="7">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C45" s="7"/>
       <c r="D45" s="7"/>
@@ -2087,17 +2096,17 @@
       <c r="F45" s="7"/>
       <c r="G45" s="7"/>
       <c t="s" r="H45" s="8">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="I45" s="8"/>
       <c r="J45" s="8"/>
       <c r="K45" s="8"/>
       <c r="L45" s="9">
-        <v>39</v>
+        <v>12</v>
       </c>
       <c r="M45" s="9"/>
       <c t="s" r="N45" s="7">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="46" ht="24.75" customHeight="1">
@@ -2105,7 +2114,7 @@
         <v>43</v>
       </c>
       <c t="s" r="B46" s="7">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C46" s="7"/>
       <c r="D46" s="7"/>
@@ -2113,17 +2122,17 @@
       <c r="F46" s="7"/>
       <c r="G46" s="7"/>
       <c t="s" r="H46" s="8">
-        <v>67</v>
+        <v>12</v>
       </c>
       <c r="I46" s="8"/>
       <c r="J46" s="8"/>
       <c r="K46" s="8"/>
       <c r="L46" s="9">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="M46" s="9"/>
       <c t="s" r="N46" s="7">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2139,17 +2148,17 @@
       <c r="F47" s="7"/>
       <c r="G47" s="7"/>
       <c t="s" r="H47" s="8">
-        <v>48</v>
+        <v>69</v>
       </c>
       <c r="I47" s="8"/>
       <c r="J47" s="8"/>
       <c r="K47" s="8"/>
       <c r="L47" s="9">
-        <v>57</v>
+        <v>30</v>
       </c>
       <c r="M47" s="9"/>
       <c t="s" r="N47" s="7">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="48" ht="25.5" customHeight="1">
@@ -2157,7 +2166,7 @@
         <v>45</v>
       </c>
       <c t="s" r="B48" s="7">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C48" s="7"/>
       <c r="D48" s="7"/>
@@ -2165,13 +2174,13 @@
       <c r="F48" s="7"/>
       <c r="G48" s="7"/>
       <c t="s" r="H48" s="8">
-        <v>12</v>
+        <v>50</v>
       </c>
       <c r="I48" s="8"/>
       <c r="J48" s="8"/>
       <c r="K48" s="8"/>
       <c r="L48" s="9">
-        <v>109</v>
+        <v>57</v>
       </c>
       <c r="M48" s="9"/>
       <c t="s" r="N48" s="7">
@@ -2183,7 +2192,7 @@
         <v>46</v>
       </c>
       <c t="s" r="B49" s="7">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C49" s="7"/>
       <c r="D49" s="7"/>
@@ -2191,17 +2200,17 @@
       <c r="F49" s="7"/>
       <c r="G49" s="7"/>
       <c t="s" r="H49" s="8">
-        <v>31</v>
+        <v>12</v>
       </c>
       <c r="I49" s="8"/>
       <c r="J49" s="8"/>
       <c r="K49" s="8"/>
       <c r="L49" s="9">
-        <v>18</v>
+        <v>109</v>
       </c>
       <c r="M49" s="9"/>
       <c t="s" r="N49" s="7">
-        <v>28</v>
+        <v>9</v>
       </c>
     </row>
     <row r="50" ht="25.5" customHeight="1">
@@ -2209,7 +2218,7 @@
         <v>47</v>
       </c>
       <c t="s" r="B50" s="7">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C50" s="7"/>
       <c r="D50" s="7"/>
@@ -2217,17 +2226,17 @@
       <c r="F50" s="7"/>
       <c r="G50" s="7"/>
       <c t="s" r="H50" s="8">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="I50" s="8"/>
       <c r="J50" s="8"/>
       <c r="K50" s="8"/>
       <c r="L50" s="9">
-        <v>60</v>
+        <v>18</v>
       </c>
       <c r="M50" s="9"/>
       <c t="s" r="N50" s="7">
-        <v>9</v>
+        <v>30</v>
       </c>
     </row>
     <row r="51" ht="24.75" customHeight="1">
@@ -2235,7 +2244,7 @@
         <v>48</v>
       </c>
       <c t="s" r="B51" s="7">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C51" s="7"/>
       <c r="D51" s="7"/>
@@ -2243,17 +2252,17 @@
       <c r="F51" s="7"/>
       <c r="G51" s="7"/>
       <c t="s" r="H51" s="8">
-        <v>73</v>
+        <v>12</v>
       </c>
       <c r="I51" s="8"/>
       <c r="J51" s="8"/>
       <c r="K51" s="8"/>
       <c r="L51" s="9">
-        <v>28</v>
+        <v>60</v>
       </c>
       <c r="M51" s="9"/>
       <c t="s" r="N51" s="7">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2269,17 +2278,17 @@
       <c r="F52" s="7"/>
       <c r="G52" s="7"/>
       <c t="s" r="H52" s="8">
-        <v>12</v>
+        <v>75</v>
       </c>
       <c r="I52" s="8"/>
       <c r="J52" s="8"/>
       <c r="K52" s="8"/>
       <c r="L52" s="9">
-        <v>135</v>
+        <v>28</v>
       </c>
       <c r="M52" s="9"/>
       <c t="s" r="N52" s="7">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="53" ht="25.5" customHeight="1">
@@ -2287,7 +2296,7 @@
         <v>50</v>
       </c>
       <c t="s" r="B53" s="7">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C53" s="7"/>
       <c r="D53" s="7"/>
@@ -2295,13 +2304,13 @@
       <c r="F53" s="7"/>
       <c r="G53" s="7"/>
       <c t="s" r="H53" s="8">
-        <v>38</v>
+        <v>12</v>
       </c>
       <c r="I53" s="8"/>
       <c r="J53" s="8"/>
       <c r="K53" s="8"/>
       <c r="L53" s="9">
-        <v>23</v>
+        <v>135</v>
       </c>
       <c r="M53" s="9"/>
       <c t="s" r="N53" s="7">
@@ -2313,7 +2322,7 @@
         <v>51</v>
       </c>
       <c t="s" r="B54" s="7">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C54" s="7"/>
       <c r="D54" s="7"/>
@@ -2321,17 +2330,17 @@
       <c r="F54" s="7"/>
       <c r="G54" s="7"/>
       <c t="s" r="H54" s="8">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="I54" s="8"/>
       <c r="J54" s="8"/>
       <c r="K54" s="8"/>
       <c r="L54" s="9">
-        <v>50</v>
+        <v>23</v>
       </c>
       <c r="M54" s="9"/>
       <c t="s" r="N54" s="7">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="55" ht="25.5" customHeight="1">
@@ -2353,11 +2362,11 @@
       <c r="J55" s="8"/>
       <c r="K55" s="8"/>
       <c r="L55" s="9">
-        <v>260</v>
+        <v>50</v>
       </c>
       <c r="M55" s="9"/>
       <c t="s" r="N55" s="7">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="56" ht="24.75" customHeight="1">
@@ -2373,17 +2382,17 @@
       <c r="F56" s="7"/>
       <c r="G56" s="7"/>
       <c t="s" r="H56" s="8">
-        <v>12</v>
+        <v>81</v>
       </c>
       <c r="I56" s="8"/>
       <c r="J56" s="8"/>
       <c r="K56" s="8"/>
       <c r="L56" s="9">
-        <v>41</v>
+        <v>260</v>
       </c>
       <c r="M56" s="9"/>
       <c t="s" r="N56" s="7">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -2391,7 +2400,7 @@
         <v>54</v>
       </c>
       <c t="s" r="B57" s="7">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C57" s="7"/>
       <c r="D57" s="7"/>
@@ -2399,17 +2408,17 @@
       <c r="F57" s="7"/>
       <c r="G57" s="7"/>
       <c t="s" r="H57" s="8">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="I57" s="8"/>
       <c r="J57" s="8"/>
       <c r="K57" s="8"/>
       <c r="L57" s="9">
-        <v>75</v>
+        <v>41</v>
       </c>
       <c r="M57" s="9"/>
       <c t="s" r="N57" s="7">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="58" ht="25.5" customHeight="1">
@@ -2417,7 +2426,7 @@
         <v>55</v>
       </c>
       <c t="s" r="B58" s="7">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C58" s="7"/>
       <c r="D58" s="7"/>
@@ -2425,13 +2434,13 @@
       <c r="F58" s="7"/>
       <c r="G58" s="7"/>
       <c t="s" r="H58" s="8">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="I58" s="8"/>
       <c r="J58" s="8"/>
       <c r="K58" s="8"/>
       <c r="L58" s="9">
-        <v>21.559999999999999</v>
+        <v>75</v>
       </c>
       <c r="M58" s="9"/>
       <c t="s" r="N58" s="7">
@@ -2443,7 +2452,7 @@
         <v>56</v>
       </c>
       <c t="s" r="B59" s="7">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C59" s="7"/>
       <c r="D59" s="7"/>
@@ -2451,13 +2460,13 @@
       <c r="F59" s="7"/>
       <c r="G59" s="7"/>
       <c t="s" r="H59" s="8">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="I59" s="8"/>
       <c r="J59" s="8"/>
       <c r="K59" s="8"/>
       <c r="L59" s="9">
-        <v>28</v>
+        <v>21.559999999999999</v>
       </c>
       <c r="M59" s="9"/>
       <c t="s" r="N59" s="7">
@@ -2469,7 +2478,7 @@
         <v>57</v>
       </c>
       <c t="s" r="B60" s="7">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C60" s="7"/>
       <c r="D60" s="7"/>
@@ -2477,17 +2486,17 @@
       <c r="F60" s="7"/>
       <c r="G60" s="7"/>
       <c t="s" r="H60" s="8">
-        <v>58</v>
+        <v>9</v>
       </c>
       <c r="I60" s="8"/>
       <c r="J60" s="8"/>
       <c r="K60" s="8"/>
       <c r="L60" s="9">
-        <v>53</v>
+        <v>28</v>
       </c>
       <c r="M60" s="9"/>
       <c t="s" r="N60" s="7">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="61" ht="24.75" customHeight="1">
@@ -2495,7 +2504,7 @@
         <v>58</v>
       </c>
       <c t="s" r="B61" s="7">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C61" s="7"/>
       <c r="D61" s="7"/>
@@ -2503,13 +2512,13 @@
       <c r="F61" s="7"/>
       <c r="G61" s="7"/>
       <c t="s" r="H61" s="8">
-        <v>86</v>
+        <v>60</v>
       </c>
       <c r="I61" s="8"/>
       <c r="J61" s="8"/>
       <c r="K61" s="8"/>
       <c r="L61" s="9">
-        <v>4</v>
+        <v>53</v>
       </c>
       <c r="M61" s="9"/>
       <c t="s" r="N61" s="7">
@@ -2529,17 +2538,17 @@
       <c r="F62" s="7"/>
       <c r="G62" s="7"/>
       <c t="s" r="H62" s="8">
-        <v>12</v>
+        <v>88</v>
       </c>
       <c r="I62" s="8"/>
       <c r="J62" s="8"/>
       <c r="K62" s="8"/>
       <c r="L62" s="9">
-        <v>80</v>
+        <v>4</v>
       </c>
       <c r="M62" s="9"/>
       <c t="s" r="N62" s="7">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="63" ht="25.5" customHeight="1">
@@ -2547,7 +2556,7 @@
         <v>60</v>
       </c>
       <c t="s" r="B63" s="7">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C63" s="7"/>
       <c r="D63" s="7"/>
@@ -2555,17 +2564,17 @@
       <c r="F63" s="7"/>
       <c r="G63" s="7"/>
       <c t="s" r="H63" s="8">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="I63" s="8"/>
       <c r="J63" s="8"/>
       <c r="K63" s="8"/>
       <c r="L63" s="9">
-        <v>31</v>
+        <v>80</v>
       </c>
       <c r="M63" s="9"/>
       <c t="s" r="N63" s="7">
-        <v>28</v>
+        <v>9</v>
       </c>
     </row>
     <row r="64" ht="24.75" customHeight="1">
@@ -2573,7 +2582,7 @@
         <v>61</v>
       </c>
       <c t="s" r="B64" s="7">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C64" s="7"/>
       <c r="D64" s="7"/>
@@ -2581,17 +2590,17 @@
       <c r="F64" s="7"/>
       <c r="G64" s="7"/>
       <c t="s" r="H64" s="8">
-        <v>90</v>
+        <v>8</v>
       </c>
       <c r="I64" s="8"/>
       <c r="J64" s="8"/>
       <c r="K64" s="8"/>
       <c r="L64" s="9">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="M64" s="9"/>
       <c t="s" r="N64" s="7">
-        <v>58</v>
+        <v>30</v>
       </c>
     </row>
     <row r="65" ht="25.5" customHeight="1">
@@ -2607,17 +2616,17 @@
       <c r="F65" s="7"/>
       <c r="G65" s="7"/>
       <c t="s" r="H65" s="8">
-        <v>28</v>
+        <v>92</v>
       </c>
       <c r="I65" s="8"/>
       <c r="J65" s="8"/>
       <c r="K65" s="8"/>
       <c r="L65" s="9">
-        <v>108</v>
+        <v>46</v>
       </c>
       <c r="M65" s="9"/>
       <c t="s" r="N65" s="7">
-        <v>9</v>
+        <v>60</v>
       </c>
     </row>
     <row r="66" ht="24.75" customHeight="1">
@@ -2625,7 +2634,7 @@
         <v>63</v>
       </c>
       <c t="s" r="B66" s="7">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C66" s="7"/>
       <c r="D66" s="7"/>
@@ -2633,17 +2642,17 @@
       <c r="F66" s="7"/>
       <c r="G66" s="7"/>
       <c t="s" r="H66" s="8">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I66" s="8"/>
       <c r="J66" s="8"/>
       <c r="K66" s="8"/>
       <c r="L66" s="9">
-        <v>45</v>
+        <v>108</v>
       </c>
       <c r="M66" s="9"/>
       <c t="s" r="N66" s="7">
-        <v>28</v>
+        <v>9</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -2651,7 +2660,7 @@
         <v>64</v>
       </c>
       <c t="s" r="B67" s="7">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C67" s="7"/>
       <c r="D67" s="7"/>
@@ -2659,17 +2668,17 @@
       <c r="F67" s="7"/>
       <c r="G67" s="7"/>
       <c t="s" r="H67" s="8">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="I67" s="8"/>
       <c r="J67" s="8"/>
       <c r="K67" s="8"/>
       <c r="L67" s="9">
-        <v>23</v>
+        <v>45</v>
       </c>
       <c r="M67" s="9"/>
       <c t="s" r="N67" s="7">
-        <v>12</v>
+        <v>30</v>
       </c>
     </row>
     <row r="68" ht="25.5" customHeight="1">
@@ -2677,7 +2686,7 @@
         <v>65</v>
       </c>
       <c t="s" r="B68" s="7">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C68" s="7"/>
       <c r="D68" s="7"/>
@@ -2685,17 +2694,17 @@
       <c r="F68" s="7"/>
       <c r="G68" s="7"/>
       <c t="s" r="H68" s="8">
-        <v>12</v>
+        <v>75</v>
       </c>
       <c r="I68" s="8"/>
       <c r="J68" s="8"/>
       <c r="K68" s="8"/>
       <c r="L68" s="9">
-        <v>100</v>
+        <v>23</v>
       </c>
       <c r="M68" s="9"/>
       <c t="s" r="N68" s="7">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="69" ht="24.75" customHeight="1">
@@ -2703,7 +2712,7 @@
         <v>66</v>
       </c>
       <c t="s" r="B69" s="7">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C69" s="7"/>
       <c r="D69" s="7"/>
@@ -2711,13 +2720,13 @@
       <c r="F69" s="7"/>
       <c r="G69" s="7"/>
       <c t="s" r="H69" s="8">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="I69" s="8"/>
       <c r="J69" s="8"/>
       <c r="K69" s="8"/>
       <c r="L69" s="9">
-        <v>230</v>
+        <v>100</v>
       </c>
       <c r="M69" s="9"/>
       <c t="s" r="N69" s="7">
@@ -2729,7 +2738,7 @@
         <v>67</v>
       </c>
       <c t="s" r="B70" s="7">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C70" s="7"/>
       <c r="D70" s="7"/>
@@ -2737,17 +2746,17 @@
       <c r="F70" s="7"/>
       <c r="G70" s="7"/>
       <c t="s" r="H70" s="8">
-        <v>31</v>
+        <v>9</v>
       </c>
       <c r="I70" s="8"/>
       <c r="J70" s="8"/>
       <c r="K70" s="8"/>
       <c r="L70" s="9">
-        <v>58</v>
+        <v>230</v>
       </c>
       <c r="M70" s="9"/>
       <c t="s" r="N70" s="7">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="71" ht="24.75" customHeight="1">
@@ -2755,7 +2764,7 @@
         <v>68</v>
       </c>
       <c t="s" r="B71" s="7">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C71" s="7"/>
       <c r="D71" s="7"/>
@@ -2763,17 +2772,17 @@
       <c r="F71" s="7"/>
       <c r="G71" s="7"/>
       <c t="s" r="H71" s="8">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="I71" s="8"/>
       <c r="J71" s="8"/>
       <c r="K71" s="8"/>
       <c r="L71" s="9">
-        <v>144</v>
+        <v>58</v>
       </c>
       <c r="M71" s="9"/>
       <c t="s" r="N71" s="7">
-        <v>67</v>
+        <v>12</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -2781,7 +2790,7 @@
         <v>69</v>
       </c>
       <c t="s" r="B72" s="7">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C72" s="7"/>
       <c r="D72" s="7"/>
@@ -2789,13 +2798,13 @@
       <c r="F72" s="7"/>
       <c r="G72" s="7"/>
       <c t="s" r="H72" s="8">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="I72" s="8"/>
       <c r="J72" s="8"/>
       <c r="K72" s="8"/>
       <c r="L72" s="9">
-        <v>97</v>
+        <v>37.600000000000001</v>
       </c>
       <c r="M72" s="9"/>
       <c t="s" r="N72" s="7">
@@ -2807,7 +2816,7 @@
         <v>70</v>
       </c>
       <c t="s" r="B73" s="7">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C73" s="7"/>
       <c r="D73" s="7"/>
@@ -2815,17 +2824,17 @@
       <c r="F73" s="7"/>
       <c r="G73" s="7"/>
       <c t="s" r="H73" s="8">
-        <v>100</v>
+        <v>12</v>
       </c>
       <c r="I73" s="8"/>
       <c r="J73" s="8"/>
       <c r="K73" s="8"/>
       <c r="L73" s="9">
-        <v>84</v>
+        <v>144</v>
       </c>
       <c r="M73" s="9"/>
       <c t="s" r="N73" s="7">
-        <v>8</v>
+        <v>69</v>
       </c>
     </row>
     <row r="74" ht="24.75" customHeight="1">
@@ -2841,17 +2850,17 @@
       <c r="F74" s="7"/>
       <c r="G74" s="7"/>
       <c t="s" r="H74" s="8">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I74" s="8"/>
       <c r="J74" s="8"/>
       <c r="K74" s="8"/>
       <c r="L74" s="9">
-        <v>68.310000000000002</v>
+        <v>97</v>
       </c>
       <c r="M74" s="9"/>
       <c t="s" r="N74" s="7">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="75" ht="25.5" customHeight="1">
@@ -2867,17 +2876,17 @@
       <c r="F75" s="7"/>
       <c r="G75" s="7"/>
       <c t="s" r="H75" s="8">
-        <v>9</v>
+        <v>103</v>
       </c>
       <c r="I75" s="8"/>
       <c r="J75" s="8"/>
       <c r="K75" s="8"/>
       <c r="L75" s="9">
-        <v>35</v>
+        <v>84</v>
       </c>
       <c r="M75" s="9"/>
       <c t="s" r="N75" s="7">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="76" ht="24.75" customHeight="1">
@@ -2885,7 +2894,7 @@
         <v>73</v>
       </c>
       <c t="s" r="B76" s="7">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C76" s="7"/>
       <c r="D76" s="7"/>
@@ -2893,13 +2902,13 @@
       <c r="F76" s="7"/>
       <c r="G76" s="7"/>
       <c t="s" r="H76" s="8">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="I76" s="8"/>
       <c r="J76" s="8"/>
       <c r="K76" s="8"/>
       <c r="L76" s="9">
-        <v>39</v>
+        <v>68.310000000000002</v>
       </c>
       <c r="M76" s="9"/>
       <c t="s" r="N76" s="7">
@@ -2911,7 +2920,7 @@
         <v>74</v>
       </c>
       <c t="s" r="B77" s="7">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C77" s="7"/>
       <c r="D77" s="7"/>
@@ -2919,17 +2928,17 @@
       <c r="F77" s="7"/>
       <c r="G77" s="7"/>
       <c t="s" r="H77" s="8">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="I77" s="8"/>
       <c r="J77" s="8"/>
       <c r="K77" s="8"/>
       <c r="L77" s="9">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="M77" s="9"/>
       <c t="s" r="N77" s="7">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="78" ht="25.5" customHeight="1">
@@ -2937,7 +2946,7 @@
         <v>75</v>
       </c>
       <c t="s" r="B78" s="7">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C78" s="7"/>
       <c r="D78" s="7"/>
@@ -2945,13 +2954,13 @@
       <c r="F78" s="7"/>
       <c r="G78" s="7"/>
       <c t="s" r="H78" s="8">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="I78" s="8"/>
       <c r="J78" s="8"/>
       <c r="K78" s="8"/>
       <c r="L78" s="9">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="M78" s="9"/>
       <c t="s" r="N78" s="7">
@@ -2963,7 +2972,7 @@
         <v>76</v>
       </c>
       <c t="s" r="B79" s="7">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C79" s="7"/>
       <c r="D79" s="7"/>
@@ -2971,17 +2980,17 @@
       <c r="F79" s="7"/>
       <c r="G79" s="7"/>
       <c t="s" r="H79" s="8">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="I79" s="8"/>
       <c r="J79" s="8"/>
       <c r="K79" s="8"/>
       <c r="L79" s="9">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="M79" s="9"/>
       <c t="s" r="N79" s="7">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="80" ht="25.5" customHeight="1">
@@ -2989,7 +2998,7 @@
         <v>77</v>
       </c>
       <c t="s" r="B80" s="7">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C80" s="7"/>
       <c r="D80" s="7"/>
@@ -2997,17 +3006,17 @@
       <c r="F80" s="7"/>
       <c r="G80" s="7"/>
       <c t="s" r="H80" s="8">
-        <v>28</v>
+        <v>8</v>
       </c>
       <c r="I80" s="8"/>
       <c r="J80" s="8"/>
       <c r="K80" s="8"/>
       <c r="L80" s="9">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="M80" s="9"/>
       <c t="s" r="N80" s="7">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="81" ht="24.75" customHeight="1">
@@ -3015,7 +3024,7 @@
         <v>78</v>
       </c>
       <c t="s" r="B81" s="7">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C81" s="7"/>
       <c r="D81" s="7"/>
@@ -3029,7 +3038,7 @@
       <c r="J81" s="8"/>
       <c r="K81" s="8"/>
       <c r="L81" s="9">
-        <v>531</v>
+        <v>23</v>
       </c>
       <c r="M81" s="9"/>
       <c t="s" r="N81" s="7">
@@ -3041,7 +3050,7 @@
         <v>79</v>
       </c>
       <c t="s" r="B82" s="7">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C82" s="7"/>
       <c r="D82" s="7"/>
@@ -3049,17 +3058,17 @@
       <c r="F82" s="7"/>
       <c r="G82" s="7"/>
       <c t="s" r="H82" s="8">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="I82" s="8"/>
       <c r="J82" s="8"/>
       <c r="K82" s="8"/>
       <c r="L82" s="9">
-        <v>-96</v>
+        <v>41</v>
       </c>
       <c r="M82" s="9"/>
       <c t="s" r="N82" s="7">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="83" ht="25.5" customHeight="1">
@@ -3067,7 +3076,7 @@
         <v>80</v>
       </c>
       <c t="s" r="B83" s="7">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C83" s="7"/>
       <c r="D83" s="7"/>
@@ -3075,17 +3084,17 @@
       <c r="F83" s="7"/>
       <c r="G83" s="7"/>
       <c t="s" r="H83" s="8">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="I83" s="8"/>
       <c r="J83" s="8"/>
       <c r="K83" s="8"/>
       <c r="L83" s="9">
-        <v>11</v>
+        <v>531</v>
       </c>
       <c r="M83" s="9"/>
       <c t="s" r="N83" s="7">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="84" ht="24.75" customHeight="1">
@@ -3093,7 +3102,7 @@
         <v>81</v>
       </c>
       <c t="s" r="B84" s="7">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C84" s="7"/>
       <c r="D84" s="7"/>
@@ -3101,17 +3110,17 @@
       <c r="F84" s="7"/>
       <c r="G84" s="7"/>
       <c t="s" r="H84" s="8">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="I84" s="8"/>
       <c r="J84" s="8"/>
       <c r="K84" s="8"/>
       <c r="L84" s="9">
-        <v>25</v>
+        <v>-96</v>
       </c>
       <c r="M84" s="9"/>
       <c t="s" r="N84" s="7">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="85" ht="25.5" customHeight="1">
@@ -3119,7 +3128,7 @@
         <v>82</v>
       </c>
       <c t="s" r="B85" s="7">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C85" s="7"/>
       <c r="D85" s="7"/>
@@ -3133,11 +3142,11 @@
       <c r="J85" s="8"/>
       <c r="K85" s="8"/>
       <c r="L85" s="9">
-        <v>53</v>
+        <v>11</v>
       </c>
       <c r="M85" s="9"/>
       <c t="s" r="N85" s="7">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="86" ht="24.75" customHeight="1">
@@ -3145,7 +3154,7 @@
         <v>83</v>
       </c>
       <c t="s" r="B86" s="7">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C86" s="7"/>
       <c r="D86" s="7"/>
@@ -3153,13 +3162,13 @@
       <c r="F86" s="7"/>
       <c r="G86" s="7"/>
       <c t="s" r="H86" s="8">
-        <v>67</v>
+        <v>8</v>
       </c>
       <c r="I86" s="8"/>
       <c r="J86" s="8"/>
       <c r="K86" s="8"/>
       <c r="L86" s="9">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="M86" s="9"/>
       <c t="s" r="N86" s="7">
@@ -3171,7 +3180,7 @@
         <v>84</v>
       </c>
       <c t="s" r="B87" s="7">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C87" s="7"/>
       <c r="D87" s="7"/>
@@ -3179,13 +3188,13 @@
       <c r="F87" s="7"/>
       <c r="G87" s="7"/>
       <c t="s" r="H87" s="8">
-        <v>31</v>
+        <v>9</v>
       </c>
       <c r="I87" s="8"/>
       <c r="J87" s="8"/>
       <c r="K87" s="8"/>
       <c r="L87" s="9">
-        <v>120</v>
+        <v>53</v>
       </c>
       <c r="M87" s="9"/>
       <c t="s" r="N87" s="7">
@@ -3197,7 +3206,7 @@
         <v>85</v>
       </c>
       <c t="s" r="B88" s="7">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C88" s="7"/>
       <c r="D88" s="7"/>
@@ -3205,13 +3214,13 @@
       <c r="F88" s="7"/>
       <c r="G88" s="7"/>
       <c t="s" r="H88" s="8">
-        <v>116</v>
+        <v>69</v>
       </c>
       <c r="I88" s="8"/>
       <c r="J88" s="8"/>
       <c r="K88" s="8"/>
       <c r="L88" s="9">
-        <v>25.739999999999998</v>
+        <v>38</v>
       </c>
       <c r="M88" s="9"/>
       <c t="s" r="N88" s="7">
@@ -3231,17 +3240,17 @@
       <c r="F89" s="7"/>
       <c r="G89" s="7"/>
       <c t="s" r="H89" s="8">
-        <v>118</v>
+        <v>33</v>
       </c>
       <c r="I89" s="8"/>
       <c r="J89" s="8"/>
       <c r="K89" s="8"/>
       <c r="L89" s="9">
-        <v>14.67</v>
+        <v>120</v>
       </c>
       <c r="M89" s="9"/>
       <c t="s" r="N89" s="7">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="90" ht="25.5" customHeight="1">
@@ -3249,7 +3258,7 @@
         <v>87</v>
       </c>
       <c t="s" r="B90" s="7">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C90" s="7"/>
       <c r="D90" s="7"/>
@@ -3257,17 +3266,17 @@
       <c r="F90" s="7"/>
       <c r="G90" s="7"/>
       <c t="s" r="H90" s="8">
-        <v>48</v>
+        <v>119</v>
       </c>
       <c r="I90" s="8"/>
       <c r="J90" s="8"/>
       <c r="K90" s="8"/>
       <c r="L90" s="9">
-        <v>34</v>
+        <v>25.739999999999998</v>
       </c>
       <c r="M90" s="9"/>
       <c t="s" r="N90" s="7">
-        <v>41</v>
+        <v>9</v>
       </c>
     </row>
     <row r="91" ht="24.75" customHeight="1">
@@ -3289,11 +3298,11 @@
       <c r="J91" s="8"/>
       <c r="K91" s="8"/>
       <c r="L91" s="9">
-        <v>10</v>
+        <v>14.67</v>
       </c>
       <c r="M91" s="9"/>
       <c t="s" r="N91" s="7">
-        <v>38</v>
+        <v>12</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -3309,17 +3318,17 @@
       <c r="F92" s="7"/>
       <c r="G92" s="7"/>
       <c t="s" r="H92" s="8">
-        <v>9</v>
+        <v>50</v>
       </c>
       <c r="I92" s="8"/>
       <c r="J92" s="8"/>
       <c r="K92" s="8"/>
       <c r="L92" s="9">
-        <v>86</v>
+        <v>34</v>
       </c>
       <c r="M92" s="9"/>
       <c t="s" r="N92" s="7">
-        <v>9</v>
+        <v>43</v>
       </c>
     </row>
     <row r="93" ht="25.5" customHeight="1">
@@ -3341,11 +3350,11 @@
       <c r="J93" s="8"/>
       <c r="K93" s="8"/>
       <c r="L93" s="9">
-        <v>-56</v>
+        <v>10</v>
       </c>
       <c r="M93" s="9"/>
       <c t="s" r="N93" s="7">
-        <v>9</v>
+        <v>40</v>
       </c>
     </row>
     <row r="94" ht="24.75" customHeight="1">
@@ -3361,17 +3370,17 @@
       <c r="F94" s="7"/>
       <c r="G94" s="7"/>
       <c t="s" r="H94" s="8">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="I94" s="8"/>
       <c r="J94" s="8"/>
       <c r="K94" s="8"/>
       <c r="L94" s="9">
-        <v>42</v>
+        <v>86</v>
       </c>
       <c r="M94" s="9"/>
       <c t="s" r="N94" s="7">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="95" ht="25.5" customHeight="1">
@@ -3387,17 +3396,17 @@
       <c r="F95" s="7"/>
       <c r="G95" s="7"/>
       <c t="s" r="H95" s="8">
-        <v>48</v>
+        <v>127</v>
       </c>
       <c r="I95" s="8"/>
       <c r="J95" s="8"/>
       <c r="K95" s="8"/>
       <c r="L95" s="9">
-        <v>192</v>
+        <v>-56</v>
       </c>
       <c r="M95" s="9"/>
       <c t="s" r="N95" s="7">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="96" ht="24.75" customHeight="1">
@@ -3405,7 +3414,7 @@
         <v>93</v>
       </c>
       <c t="s" r="B96" s="7">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C96" s="7"/>
       <c r="D96" s="7"/>
@@ -3413,17 +3422,17 @@
       <c r="F96" s="7"/>
       <c r="G96" s="7"/>
       <c t="s" r="H96" s="8">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="I96" s="8"/>
       <c r="J96" s="8"/>
       <c r="K96" s="8"/>
       <c r="L96" s="9">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="M96" s="9"/>
       <c t="s" r="N96" s="7">
-        <v>28</v>
+        <v>12</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -3431,7 +3440,7 @@
         <v>94</v>
       </c>
       <c t="s" r="B97" s="7">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C97" s="7"/>
       <c r="D97" s="7"/>
@@ -3439,17 +3448,17 @@
       <c r="F97" s="7"/>
       <c r="G97" s="7"/>
       <c t="s" r="H97" s="8">
-        <v>9</v>
+        <v>50</v>
       </c>
       <c r="I97" s="8"/>
       <c r="J97" s="8"/>
       <c r="K97" s="8"/>
       <c r="L97" s="9">
-        <v>375</v>
+        <v>192</v>
       </c>
       <c r="M97" s="9"/>
       <c t="s" r="N97" s="7">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="98" ht="25.5" customHeight="1">
@@ -3457,7 +3466,7 @@
         <v>95</v>
       </c>
       <c t="s" r="B98" s="7">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C98" s="7"/>
       <c r="D98" s="7"/>
@@ -3465,17 +3474,17 @@
       <c r="F98" s="7"/>
       <c r="G98" s="7"/>
       <c t="s" r="H98" s="8">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="I98" s="8"/>
       <c r="J98" s="8"/>
       <c r="K98" s="8"/>
       <c r="L98" s="9">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="M98" s="9"/>
       <c t="s" r="N98" s="7">
-        <v>9</v>
+        <v>30</v>
       </c>
     </row>
     <row r="99" ht="24.75" customHeight="1">
@@ -3483,7 +3492,7 @@
         <v>96</v>
       </c>
       <c t="s" r="B99" s="7">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C99" s="7"/>
       <c r="D99" s="7"/>
@@ -3491,17 +3500,17 @@
       <c r="F99" s="7"/>
       <c r="G99" s="7"/>
       <c t="s" r="H99" s="8">
-        <v>131</v>
+        <v>9</v>
       </c>
       <c r="I99" s="8"/>
       <c r="J99" s="8"/>
       <c r="K99" s="8"/>
       <c r="L99" s="9">
-        <v>8</v>
+        <v>375</v>
       </c>
       <c r="M99" s="9"/>
       <c t="s" r="N99" s="7">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="100" ht="25.5" customHeight="1">
@@ -3517,17 +3526,17 @@
       <c r="F100" s="7"/>
       <c r="G100" s="7"/>
       <c t="s" r="H100" s="8">
-        <v>133</v>
+        <v>12</v>
       </c>
       <c r="I100" s="8"/>
       <c r="J100" s="8"/>
       <c r="K100" s="8"/>
       <c r="L100" s="9">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="M100" s="9"/>
       <c t="s" r="N100" s="7">
-        <v>48</v>
+        <v>9</v>
       </c>
     </row>
     <row r="101" ht="24.75" customHeight="1">
@@ -3535,7 +3544,7 @@
         <v>98</v>
       </c>
       <c t="s" r="B101" s="7">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C101" s="7"/>
       <c r="D101" s="7"/>
@@ -3543,13 +3552,13 @@
       <c r="F101" s="7"/>
       <c r="G101" s="7"/>
       <c t="s" r="H101" s="8">
-        <v>9</v>
+        <v>134</v>
       </c>
       <c r="I101" s="8"/>
       <c r="J101" s="8"/>
       <c r="K101" s="8"/>
       <c r="L101" s="9">
-        <v>-4</v>
+        <v>8</v>
       </c>
       <c r="M101" s="9"/>
       <c t="s" r="N101" s="7">
@@ -3569,17 +3578,17 @@
       <c r="F102" s="7"/>
       <c r="G102" s="7"/>
       <c t="s" r="H102" s="8">
-        <v>12</v>
+        <v>136</v>
       </c>
       <c r="I102" s="8"/>
       <c r="J102" s="8"/>
       <c r="K102" s="8"/>
       <c r="L102" s="9">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="M102" s="9"/>
       <c t="s" r="N102" s="7">
-        <v>9</v>
+        <v>50</v>
       </c>
     </row>
     <row r="103" ht="25.5" customHeight="1">
@@ -3587,7 +3596,7 @@
         <v>100</v>
       </c>
       <c t="s" r="B103" s="7">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C103" s="7"/>
       <c r="D103" s="7"/>
@@ -3595,17 +3604,17 @@
       <c r="F103" s="7"/>
       <c r="G103" s="7"/>
       <c t="s" r="H103" s="8">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="I103" s="8"/>
       <c r="J103" s="8"/>
       <c r="K103" s="8"/>
       <c r="L103" s="9">
-        <v>40</v>
+        <v>-4</v>
       </c>
       <c r="M103" s="9"/>
       <c t="s" r="N103" s="7">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="104" ht="24.75" customHeight="1">
@@ -3613,7 +3622,7 @@
         <v>101</v>
       </c>
       <c t="s" r="B104" s="7">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C104" s="7"/>
       <c r="D104" s="7"/>
@@ -3621,13 +3630,13 @@
       <c r="F104" s="7"/>
       <c r="G104" s="7"/>
       <c t="s" r="H104" s="8">
-        <v>116</v>
+        <v>12</v>
       </c>
       <c r="I104" s="8"/>
       <c r="J104" s="8"/>
       <c r="K104" s="8"/>
       <c r="L104" s="9">
-        <v>75</v>
+        <v>50</v>
       </c>
       <c r="M104" s="9"/>
       <c t="s" r="N104" s="7">
@@ -3639,7 +3648,7 @@
         <v>102</v>
       </c>
       <c t="s" r="B105" s="7">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C105" s="7"/>
       <c r="D105" s="7"/>
@@ -3647,13 +3656,13 @@
       <c r="F105" s="7"/>
       <c r="G105" s="7"/>
       <c t="s" r="H105" s="8">
-        <v>79</v>
+        <v>12</v>
       </c>
       <c r="I105" s="8"/>
       <c r="J105" s="8"/>
       <c r="K105" s="8"/>
       <c r="L105" s="9">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="M105" s="9"/>
       <c t="s" r="N105" s="7">
@@ -3665,7 +3674,7 @@
         <v>103</v>
       </c>
       <c t="s" r="B106" s="7">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C106" s="7"/>
       <c r="D106" s="7"/>
@@ -3673,51 +3682,103 @@
       <c r="F106" s="7"/>
       <c r="G106" s="7"/>
       <c t="s" r="H106" s="8">
-        <v>9</v>
+        <v>119</v>
       </c>
       <c r="I106" s="8"/>
       <c r="J106" s="8"/>
       <c r="K106" s="8"/>
       <c r="L106" s="9">
-        <v>20</v>
+        <v>75</v>
       </c>
       <c r="M106" s="9"/>
       <c t="s" r="N106" s="7">
         <v>9</v>
       </c>
     </row>
-    <row r="107" ht="26.25" customHeight="1">
-      <c r="K107" s="10">
-        <v>5942.2600000000002</v>
-      </c>
-      <c r="L107" s="10"/>
-      <c r="M107" s="10"/>
-      <c r="N107" s="10"/>
-    </row>
-    <row r="108" ht="16.5" customHeight="1">
-      <c t="s" r="A108" s="11">
-        <v>140</v>
-      </c>
-      <c r="B108" s="11"/>
-      <c r="C108" s="11"/>
-      <c r="D108" s="11"/>
-      <c r="E108" s="11"/>
-      <c t="s" r="F108" s="12">
+    <row r="107" ht="25.5" customHeight="1">
+      <c r="A107" s="6">
+        <v>104</v>
+      </c>
+      <c t="s" r="B107" s="7">
         <v>141</v>
       </c>
-      <c r="G108" s="12"/>
-      <c r="H108" s="13"/>
-      <c t="s" r="I108" s="14">
+      <c r="C107" s="7"/>
+      <c r="D107" s="7"/>
+      <c r="E107" s="7"/>
+      <c r="F107" s="7"/>
+      <c r="G107" s="7"/>
+      <c t="s" r="H107" s="8">
+        <v>81</v>
+      </c>
+      <c r="I107" s="8"/>
+      <c r="J107" s="8"/>
+      <c r="K107" s="8"/>
+      <c r="L107" s="9">
+        <v>80</v>
+      </c>
+      <c r="M107" s="9"/>
+      <c t="s" r="N107" s="7">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="108" ht="25.5" customHeight="1">
+      <c r="A108" s="6">
+        <v>105</v>
+      </c>
+      <c t="s" r="B108" s="7">
         <v>142</v>
       </c>
-      <c r="J108" s="14"/>
-      <c r="K108" s="14"/>
-      <c r="L108" s="14"/>
-      <c r="M108" s="14"/>
-      <c r="N108" s="14"/>
+      <c r="C108" s="7"/>
+      <c r="D108" s="7"/>
+      <c r="E108" s="7"/>
+      <c r="F108" s="7"/>
+      <c r="G108" s="7"/>
+      <c t="s" r="H108" s="8">
+        <v>9</v>
+      </c>
+      <c r="I108" s="8"/>
+      <c r="J108" s="8"/>
+      <c r="K108" s="8"/>
+      <c r="L108" s="9">
+        <v>20</v>
+      </c>
+      <c r="M108" s="9"/>
+      <c t="s" r="N108" s="7">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="109" ht="25.5" customHeight="1">
+      <c r="K109" s="10">
+        <v>5994.1599999999999</v>
+      </c>
+      <c r="L109" s="10"/>
+      <c r="M109" s="10"/>
+      <c r="N109" s="10"/>
+    </row>
+    <row r="110" ht="16.5" customHeight="1">
+      <c t="s" r="A110" s="11">
+        <v>143</v>
+      </c>
+      <c r="B110" s="11"/>
+      <c r="C110" s="11"/>
+      <c r="D110" s="11"/>
+      <c r="E110" s="11"/>
+      <c t="s" r="F110" s="12">
+        <v>144</v>
+      </c>
+      <c r="G110" s="12"/>
+      <c r="H110" s="13"/>
+      <c t="s" r="I110" s="14">
+        <v>145</v>
+      </c>
+      <c r="J110" s="14"/>
+      <c r="K110" s="14"/>
+      <c r="L110" s="14"/>
+      <c r="M110" s="14"/>
+      <c r="N110" s="14"/>
     </row>
   </sheetData>
-  <mergeCells count="320">
+  <mergeCells count="326">
     <mergeCell ref="C1:L1"/>
     <mergeCell ref="E2:F2"/>
     <mergeCell ref="G2:I2"/>
@@ -4034,10 +4095,16 @@
     <mergeCell ref="B106:G106"/>
     <mergeCell ref="H106:K106"/>
     <mergeCell ref="L106:M106"/>
-    <mergeCell ref="K107:N107"/>
-    <mergeCell ref="A108:E108"/>
-    <mergeCell ref="F108:G108"/>
-    <mergeCell ref="I108:N108"/>
+    <mergeCell ref="B107:G107"/>
+    <mergeCell ref="H107:K107"/>
+    <mergeCell ref="L107:M107"/>
+    <mergeCell ref="B108:G108"/>
+    <mergeCell ref="H108:K108"/>
+    <mergeCell ref="L108:M108"/>
+    <mergeCell ref="K109:N109"/>
+    <mergeCell ref="A110:E110"/>
+    <mergeCell ref="F110:G110"/>
+    <mergeCell ref="I110:N110"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>
